--- a/EG's_Task.xlsx
+++ b/EG's_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ドキュメント\aaa\Project_EVILGENE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9EFF25-3D67-4936-9D22-FD96C492E59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A262414-4E1A-483E-B883-84CB7D67855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,8 +75,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SSAOを予定</t>
-    <rPh sb="5" eb="7">
+    <t>SSAO,Fogを予定</t>
+    <rPh sb="9" eb="11">
       <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -125,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,10 +134,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -160,7 +175,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,7 +461,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1"/>
